--- a/pipeline/Machine Learning.xlsx
+++ b/pipeline/Machine Learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivany\fitai\pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BDA530-6E13-4838-9F09-FDD1AF6F3B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917599BE-9B0C-408E-8863-F80B6399A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1095" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Min Score</t>
+  </si>
+  <si>
+    <t>FramesStart</t>
+  </si>
+  <si>
+    <t>FramesMid</t>
+  </si>
+  <si>
+    <t>FramesEnd</t>
   </si>
 </sst>
 </file>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N17" sqref="N16:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,11 +419,15 @@
     <col min="1" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="9.140625" style="1"/>
-    <col min="9" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -445,8 +458,17 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.68802139151049202</v>
       </c>
@@ -477,8 +499,17 @@
       <c r="L2" s="1">
         <v>8.2602500915527302E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.98139064723689395</v>
       </c>
@@ -498,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.96635594040163098</v>
       </c>
@@ -506,7 +537,7 @@
         <v>0.65916954231860103</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.92357311511011997</v>
       </c>
@@ -514,7 +545,7 @@
         <v>0.63568269874261296</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.87190916928162399</v>
       </c>
@@ -522,7 +553,7 @@
         <v>0.62470408438392</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.837416302045072</v>
       </c>
@@ -530,7 +561,7 @@
         <v>0.60818648901995698</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.763515141860026</v>
       </c>
@@ -538,7 +569,7 @@
         <v>0.57809132853492395</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.71285771157355804</v>
       </c>
@@ -547,7 +578,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.67127353808941903</v>
       </c>
@@ -555,7 +586,7 @@
         <v>0.541638367353521</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.65916954231860103</v>
       </c>
@@ -563,7 +594,7 @@
         <v>0.52621677093364205</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.63568269874261296</v>
       </c>
@@ -571,7 +602,7 @@
         <v>0.50373886666870404</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.62470408438392</v>
       </c>
@@ -579,7 +610,7 @@
         <v>0.49483952675642401</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.60818648901995698</v>
       </c>
@@ -587,7 +618,7 @@
         <v>0.48920750970135402</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.57809132853492395</v>
       </c>
@@ -595,7 +626,7 @@
         <v>0.48351129517898001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.56351981890085001</v>
       </c>

--- a/pipeline/Machine Learning.xlsx
+++ b/pipeline/Machine Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivany\fitai\pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5278146-E88F-4FD6-A646-338414157ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC62767B-BCA4-4DE1-9E68-815CE62B9893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1095" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Rep No</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Diff 3</t>
+  </si>
+  <si>
+    <t>Push Up</t>
+  </si>
+  <si>
+    <t>New 2</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,15 +431,18 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +491,32 @@
       <c r="Q2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -537,8 +570,33 @@
         <f>P3-$P$28</f>
         <v>-3.0406654964793209E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.52211686075464803</v>
+      </c>
+      <c r="V3" s="1">
+        <v>10</v>
+      </c>
+      <c r="W3" s="1">
+        <v>6</v>
+      </c>
+      <c r="X3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.143357038497924</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-2.8242826461791899E-2</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>Y3-$Y$12</f>
+        <v>2.4742179446749876E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -589,11 +647,36 @@
         <v>7.8439712524413993E-3</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R27" si="0">P4-$P$28</f>
+        <f t="shared" ref="R4:R26" si="0">P4-$P$28</f>
         <v>5.0081549991260702E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="1">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.51387394872764403</v>
+      </c>
+      <c r="V4" s="1">
+        <v>10</v>
+      </c>
+      <c r="W4" s="1">
+        <v>8</v>
+      </c>
+      <c r="X4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.15339899063110299</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-5.6219339370727497E-2</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" ref="AA4:AA11" si="1">Y4-$Y$12</f>
+        <v>3.4784131579928865E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -647,8 +730,33 @@
         <f t="shared" si="0"/>
         <v>0.1456461537968026</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="1">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.51517546914148704</v>
+      </c>
+      <c r="V5" s="1">
+        <v>12</v>
+      </c>
+      <c r="W5" s="1">
+        <v>14</v>
+      </c>
+      <c r="X5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.12602472305297799</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-5.7713747024536098E-2</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4098640018038647E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -702,8 +810,33 @@
         <f t="shared" si="0"/>
         <v>0.26955863129008878</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.51882624395787602</v>
+      </c>
+      <c r="V6" s="1">
+        <v>9</v>
+      </c>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>8.8798880577087402E-2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-4.7098398208618102E-2</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.9815978474086721E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -757,8 +890,33 @@
         <f t="shared" si="0"/>
         <v>0.2283528436313968</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.51841328304564405</v>
+      </c>
+      <c r="V7" s="1">
+        <v>14</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>9.4106674194335896E-2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-5.1176071166992097E-2</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.4508184856838228E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -812,8 +970,33 @@
         <f t="shared" si="0"/>
         <v>-6.5683733333242039E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8" s="1">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.51797034173622702</v>
+      </c>
+      <c r="V8" s="1">
+        <v>12</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.130860209465026</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>-4.7478079795837402E-2</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2245350413851872E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -867,8 +1050,33 @@
         <f t="shared" si="0"/>
         <v>4.4232665408741198E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9" s="1">
+        <v>4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.51643946145258302</v>
+      </c>
+      <c r="V9" s="1">
+        <v>10</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="X9" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.132022500038146</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-5.26152849197387E-2</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3407640986971878E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -922,8 +1130,33 @@
         <f t="shared" si="0"/>
         <v>0.11025577675212495</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.513479053324566</v>
+      </c>
+      <c r="V10" s="1">
+        <v>10</v>
+      </c>
+      <c r="W10" s="1">
+        <v>7</v>
+      </c>
+      <c r="X10" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.13542759418487499</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-6.2092661857604897E-2</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6812735133700865E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -977,8 +1210,33 @@
         <f t="shared" si="0"/>
         <v>3.5872756351123997E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.51907544587630305</v>
+      </c>
+      <c r="V11" s="1">
+        <v>26</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>6.3537120819091797E-2</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-5.0564646720886203E-2</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.5077738232082327E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1032,8 +1290,36 @@
         <f t="shared" si="0"/>
         <v>-1.9933592189441962E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U12" s="1">
+        <f>AVERAGE(U3:U11)</f>
+        <v>0.51726334533521978</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" ref="V12:AA12" si="2">AVERAGE(V3:V11)</f>
+        <v>12.555555555555555</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11861485905117412</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.0355672836303662E-2</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.1679056923619804E-18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1088,7 +1374,7 @@
         <v>-0.16784495223652218</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1143,33 +1429,33 @@
         <v>-0.17810434211384119</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>AVERAGE(B3:B14)</f>
         <v>0.55775104308982204</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:H15" si="1">AVERAGE(C3:C14)</f>
+        <f t="shared" ref="C15:H15" si="3">AVERAGE(C3:C14)</f>
         <v>11.416666666666666</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.666666666666666</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.333333333333333</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.32804563641548112</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.0833796858787488E-2</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="1">
@@ -1193,8 +1479,16 @@
       <c r="Q15" s="1">
         <v>-0.25618553161620999</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Y15" s="1">
+        <f>1.583 +Y12</f>
+        <v>1.7016148590511742</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>1.7 + Z12</f>
+        <v>1.6496443271636962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1585,31 +1879,31 @@
         <v>0.75720627936621465</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:R28" si="2">AVERAGE(L3:L26)</f>
+        <f t="shared" ref="L28:R28" si="4">AVERAGE(L3:L26)</f>
         <v>13.416666666666666</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.833333333333333</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5416666666666661</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.4471074740091937E-2</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.1195586312900888</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.1418809493382739E-2</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3877787807814457E-17</v>
       </c>
     </row>

--- a/pipeline/Machine Learning.xlsx
+++ b/pipeline/Machine Learning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivany\fitai\pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC62767B-BCA4-4DE1-9E68-815CE62B9893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43AA48-9DD4-4DD0-BEDB-545025161EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1095" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Rep No</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>New 2</t>
+  </si>
+  <si>
+    <t>Hamstring Stretch (Left Leg)</t>
+  </si>
+  <si>
+    <t>New 1</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +437,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -441,8 +447,11 @@
       <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +524,35 @@
       <c r="Z2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -595,8 +631,37 @@
         <f>Y3-$Y$12</f>
         <v>2.4742179446749876E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.72158106656586096</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1.28055810928344E-2</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>-7.5664520263671797E-3</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>AH3-$AH$12</f>
+        <v>6.4915776252746415E-2</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>AI3-$AI$12</f>
+        <v>-8.3268827862209502E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -675,8 +740,37 @@
         <f t="shared" ref="AA4:AA11" si="1">Y4-$Y$12</f>
         <v>3.4784131579928865E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.69077662240920601</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>37</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>-9.6017122268676702E-2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>3.5555601119995103E-2</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f t="shared" ref="AJ4:AJ11" si="2">AH4-$AH$12</f>
+        <v>-4.390692710876469E-2</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK11" si="3">AI4-$AI$12</f>
+        <v>-4.0146774715847225E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -755,8 +849,37 @@
         <f t="shared" si="1"/>
         <v>7.4098640018038647E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.72268921439524503</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>39</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1.5538096427917401E-2</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>3.4094929695129297E-2</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7648291587829409E-2</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.1607446140713031E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -835,8 +958,37 @@
         <f t="shared" si="1"/>
         <v>-2.9815978474086721E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.72070594207213901</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>34</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>-5.64336776733398E-3</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>5.8874189853668199E-2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6466827392578035E-2</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.6828185982174129E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -915,8 +1067,37 @@
         <f t="shared" si="1"/>
         <v>-2.4508184856838228E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.72119018361228904</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>23</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>21</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>2.7883291244506801E-2</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>2.94324159622192E-2</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9993486404418807E-2</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.6269959873623132E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -995,8 +1176,37 @@
         <f t="shared" si="1"/>
         <v>1.2245350413851872E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0.70638232408676505</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>-4.84662055969238E-2</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>8.2111299037933294E-2</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6439895629882119E-3</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4089232020909659E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1075,8 +1285,37 @@
         <f t="shared" si="1"/>
         <v>1.3407640986971878E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.70846825796900403</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>59</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>-5.1817178726196199E-2</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.109801232814788</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9301643371581337E-4</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4098856978945671E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1155,8 +1394,37 @@
         <f t="shared" si="1"/>
         <v>1.6812735133700865E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.69042242010880805</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>52</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>-0.11832201480865399</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.14246112108230499</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.6211819648741982E-2</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6758745246462664E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1235,8 +1503,37 @@
         <f t="shared" si="1"/>
         <v>-5.5077738232082327E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0.67636366173634999</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>23</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>-0.20495283603668199</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.19655704498290999</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.15284264087676996</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12085466914706766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1295,31 +1592,63 @@
         <v>0.51726334533521978</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12:AA12" si="2">AVERAGE(V3:V11)</f>
+        <f t="shared" ref="V12:AA12" si="4">AVERAGE(V3:V11)</f>
         <v>12.555555555555555</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11861485905117412</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.0355672836303662E-2</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.1679056923619804E-18</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD12" s="1">
+        <f>AVERAGE(AD3:AD11)</f>
+        <v>0.70650885477285186</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" ref="AE12:AK12" si="5">AVERAGE(AE3:AE11)</f>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="5"/>
+        <v>37.111111111111114</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.2110195159912012E-2</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="5"/>
+        <v>7.5702375835842328E-2</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1374,7 +1703,7 @@
         <v>-0.16784495223652218</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1429,33 +1758,33 @@
         <v>-0.17810434211384119</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>AVERAGE(B3:B14)</f>
         <v>0.55775104308982204</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:H15" si="3">AVERAGE(C3:C14)</f>
+        <f t="shared" ref="C15:H15" si="6">AVERAGE(C3:C14)</f>
         <v>11.416666666666666</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.666666666666666</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.333333333333333</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.32804563641548112</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.0833796858787488E-2</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J15" s="1">
@@ -1488,7 +1817,7 @@
         <v>1.6496443271636962</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1879,31 +2208,31 @@
         <v>0.75720627936621465</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:R28" si="4">AVERAGE(L3:L26)</f>
+        <f t="shared" ref="L28:R28" si="7">AVERAGE(L3:L26)</f>
         <v>13.416666666666666</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.5416666666666661</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.4471074740091937E-2</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.1195586312900888</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.1418809493382739E-2</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.3877787807814457E-17</v>
       </c>
     </row>

--- a/pipeline/Machine Learning.xlsx
+++ b/pipeline/Machine Learning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivany\fitai\pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43AA48-9DD4-4DD0-BEDB-545025161EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB0DA9-FE97-49E4-818C-88D81AB6B137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Rep No</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>New 1</t>
+  </si>
+  <si>
+    <t>Knee Push Up</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK64"/>
+  <dimension ref="A1:AU64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="Z9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +440,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -448,10 +451,13 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,14 +551,35 @@
       <c r="AI2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -635,33 +662,62 @@
         <v>1</v>
       </c>
       <c r="AD3" s="1">
+        <v>0.56861889909917795</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>8.6318850517272894E-2</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.18800163269042899</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>AH3-$AH$28</f>
+        <v>6.498547554016107E-2</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>AI3-$AI$28</f>
+        <v>5.7912130355834562E-2</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
         <v>0.72158106656586096</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AO3" s="1">
         <v>51</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AP3" s="1">
         <v>37</v>
       </c>
-      <c r="AG3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="AQ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR3" s="1">
         <v>1.28055810928344E-2</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AS3" s="1">
         <v>-7.5664520263671797E-3</v>
       </c>
-      <c r="AJ3" s="1">
-        <f>AH3-$AH$12</f>
+      <c r="AT3" s="1">
+        <f>AR3-$AR$12</f>
         <v>6.4915776252746415E-2</v>
       </c>
-      <c r="AK3" s="1">
-        <f>AI3-$AI$12</f>
+      <c r="AU3" s="1">
+        <f>AS3-$AS$12</f>
         <v>-8.3268827862209502E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -744,33 +800,62 @@
         <v>2</v>
       </c>
       <c r="AD4" s="1">
+        <v>0.57111637898632195</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.122771859169006</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.19774162769317599</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f t="shared" ref="AJ4:AJ27" si="2">AH4-$AH$28</f>
+        <v>0.10143848419189416</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK27" si="3">AI4-$AI$28</f>
+        <v>6.7652125358581561E-2</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="1">
         <v>0.69077662240920601</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AO4" s="1">
         <v>37</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AP4" s="1">
         <v>34</v>
       </c>
-      <c r="AG4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="1">
+      <c r="AQ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="1">
         <v>-9.6017122268676702E-2</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AS4" s="1">
         <v>3.5555601119995103E-2</v>
       </c>
-      <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ11" si="2">AH4-$AH$12</f>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT11" si="4">AR4-$AR$12</f>
         <v>-4.390692710876469E-2</v>
       </c>
-      <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK11" si="3">AI4-$AI$12</f>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU11" si="5">AS4-$AS$12</f>
         <v>-4.0146774715847225E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -853,33 +938,62 @@
         <v>3</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.72268921439524503</v>
+        <v>0.55738101404025497</v>
       </c>
       <c r="AE5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="AG5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="1">
-        <v>1.5538096427917401E-2</v>
+        <v>5.5152416229247998E-2</v>
       </c>
       <c r="AI5" s="1">
-        <v>3.4094929695129297E-2</v>
+        <v>0.145908713340759</v>
       </c>
       <c r="AJ5" s="1">
         <f t="shared" si="2"/>
-        <v>6.7648291587829409E-2</v>
+        <v>3.3819041252136167E-2</v>
       </c>
       <c r="AK5" s="1">
         <f t="shared" si="3"/>
+        <v>1.5819211006164569E-2</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.72268921439524503</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1.5538096427917401E-2</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3.4094929695129297E-2</v>
+      </c>
+      <c r="AT5" s="1">
+        <f t="shared" si="4"/>
+        <v>6.7648291587829409E-2</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="5"/>
         <v>-4.1607446140713031E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -962,33 +1076,62 @@
         <v>4</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.72070594207213901</v>
+        <v>0.55645103529701501</v>
       </c>
       <c r="AE6" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AF6" s="1">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AG6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="1">
-        <v>-5.64336776733398E-3</v>
+        <v>4.98948097229003E-2</v>
       </c>
       <c r="AI6" s="1">
-        <v>5.8874189853668199E-2</v>
+        <v>0.14019107818603499</v>
       </c>
       <c r="AJ6" s="1">
         <f t="shared" si="2"/>
-        <v>4.6466827392578035E-2</v>
+        <v>2.8561434745788469E-2</v>
       </c>
       <c r="AK6" s="1">
         <f t="shared" si="3"/>
+        <v>1.0101575851440558E-2</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0.72070594207213901</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>34</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>-5.64336776733398E-3</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>5.8874189853668199E-2</v>
+      </c>
+      <c r="AT6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6466827392578035E-2</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="5"/>
         <v>-1.6828185982174129E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1071,33 +1214,62 @@
         <v>5</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.72119018361228904</v>
+        <v>0.55189448406929698</v>
       </c>
       <c r="AE7" s="1">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AF7" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AG7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH7" s="1">
-        <v>2.7883291244506801E-2</v>
+        <v>5.74632883071899E-2</v>
       </c>
       <c r="AI7" s="1">
-        <v>2.94324159622192E-2</v>
+        <v>0.125199794769287</v>
       </c>
       <c r="AJ7" s="1">
         <f t="shared" si="2"/>
-        <v>7.9993486404418807E-2</v>
+        <v>3.6129913330078069E-2</v>
       </c>
       <c r="AK7" s="1">
         <f t="shared" si="3"/>
+        <v>-4.8897075653074329E-3</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0.72119018361228904</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>21</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>2.7883291244506801E-2</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>2.94324159622192E-2</v>
+      </c>
+      <c r="AT7" s="1">
+        <f t="shared" si="4"/>
+        <v>7.9993486404418807E-2</v>
+      </c>
+      <c r="AU7" s="1">
+        <f t="shared" si="5"/>
         <v>-4.6269959873623132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1180,33 +1352,62 @@
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.70638232408676505</v>
+        <v>0.55255323870384199</v>
       </c>
       <c r="AE8" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AF8" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="AG8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="1">
-        <v>-4.84662055969238E-2</v>
+        <v>9.4588398933410603E-2</v>
       </c>
       <c r="AI8" s="1">
-        <v>8.2111299037933294E-2</v>
+        <v>0.133630871772766</v>
       </c>
       <c r="AJ8" s="1">
         <f t="shared" si="2"/>
-        <v>3.6439895629882119E-3</v>
+        <v>7.3255023956298765E-2</v>
       </c>
       <c r="AK8" s="1">
         <f t="shared" si="3"/>
+        <v>3.541369438171571E-3</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.70638232408676505</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>29</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>-4.84662055969238E-2</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>8.2111299037933294E-2</v>
+      </c>
+      <c r="AT8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6439895629882119E-3</v>
+      </c>
+      <c r="AU8" s="1">
+        <f t="shared" si="5"/>
         <v>6.4089232020909659E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1289,33 +1490,62 @@
         <v>2</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.70846825796900403</v>
+        <v>0.54521348829803096</v>
       </c>
       <c r="AE9" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF9" s="1">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="AG9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH9" s="1">
-        <v>-5.1817178726196199E-2</v>
+        <v>5.9903264045715297E-2</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.109801232814788</v>
+        <v>9.9272012710571206E-2</v>
       </c>
       <c r="AJ9" s="1">
         <f t="shared" si="2"/>
-        <v>2.9301643371581337E-4</v>
+        <v>3.8569889068603466E-2</v>
       </c>
       <c r="AK9" s="1">
         <f t="shared" si="3"/>
+        <v>-3.0817489624023225E-2</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0.70846825796900403</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>59</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>-5.1817178726196199E-2</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0.109801232814788</v>
+      </c>
+      <c r="AT9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9301643371581337E-4</v>
+      </c>
+      <c r="AU9" s="1">
+        <f t="shared" si="5"/>
         <v>3.4098856978945671E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1398,33 +1628,62 @@
         <v>3</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.69042242010880805</v>
+        <v>0.54297076762074803</v>
       </c>
       <c r="AE10" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF10" s="1">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="AG10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="1">
-        <v>-0.11832201480865399</v>
+        <v>5.7709336280822698E-2</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.14246112108230499</v>
+        <v>9.2293620109558105E-2</v>
       </c>
       <c r="AJ10" s="1">
         <f t="shared" si="2"/>
-        <v>-6.6211819648741982E-2</v>
+        <v>3.6375961303710867E-2</v>
       </c>
       <c r="AK10" s="1">
         <f t="shared" si="3"/>
+        <v>-3.7795882225036326E-2</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0.69042242010880805</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>52</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>-0.11832201480865399</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0.14246112108230499</v>
+      </c>
+      <c r="AT10" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.6211819648741982E-2</v>
+      </c>
+      <c r="AU10" s="1">
+        <f t="shared" si="5"/>
         <v>6.6758745246462664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1507,33 +1766,62 @@
         <v>4</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.67636366173634999</v>
+        <v>0.53791589189677602</v>
       </c>
       <c r="AE11" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AF11" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH11" s="1">
-        <v>-0.20495283603668199</v>
+        <v>5.0522446632385198E-2</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.19655704498290999</v>
+        <v>7.7369809150695801E-2</v>
       </c>
       <c r="AJ11" s="1">
         <f t="shared" si="2"/>
-        <v>-0.15284264087676996</v>
+        <v>2.9189071655273367E-2</v>
       </c>
       <c r="AK11" s="1">
         <f t="shared" si="3"/>
+        <v>-5.271969318389863E-2</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0.67636366173634999</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>23</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>-0.20495283603668199</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0.19655704498290999</v>
+      </c>
+      <c r="AT11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.15284264087676996</v>
+      </c>
+      <c r="AU11" s="1">
+        <f t="shared" si="5"/>
         <v>0.12085466914706766</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1592,63 +1880,92 @@
         <v>0.51726334533521978</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12:AA12" si="4">AVERAGE(V3:V11)</f>
+        <f t="shared" ref="V12:AA12" si="6">AVERAGE(V3:V11)</f>
         <v>12.555555555555555</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.666666666666667</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11861485905117412</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.0355672836303662E-2</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.1679056923619804E-18</v>
       </c>
+      <c r="AC12" s="1">
+        <v>5</v>
+      </c>
       <c r="AD12" s="1">
-        <f>AVERAGE(AD3:AD11)</f>
+        <v>0.53438364848386999</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>7.3800563812255804E-2</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>6.9659471511840806E-2</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2467188835143973E-2</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.0430030822753625E-2</v>
+      </c>
+      <c r="AN12" s="1">
+        <f>AVERAGE(AN3:AN11)</f>
         <v>0.70650885477285186</v>
       </c>
-      <c r="AE12" s="1">
-        <f t="shared" ref="AE12:AK12" si="5">AVERAGE(AE3:AE11)</f>
+      <c r="AO12" s="1">
+        <f t="shared" ref="AO12:AU12" si="7">AVERAGE(AO3:AO11)</f>
         <v>24.888888888888889</v>
       </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AP12" s="1">
+        <f t="shared" si="7"/>
         <v>37.111111111111114</v>
       </c>
-      <c r="AG12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AQ12" s="1">
+        <f t="shared" si="7"/>
         <v>3.2222222222222223</v>
       </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AR12" s="1">
+        <f t="shared" si="7"/>
         <v>-5.2110195159912012E-2</v>
       </c>
-      <c r="AI12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AS12" s="1">
+        <f t="shared" si="7"/>
         <v>7.5702375835842328E-2</v>
       </c>
-      <c r="AJ12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AT12" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AU12" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1702,8 +2019,37 @@
         <f t="shared" si="0"/>
         <v>-0.16784495223652218</v>
       </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0.55769445079655799</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>9.3421936035156194E-2</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.15040647983551</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="2"/>
+        <v>7.208856105804437E-2</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0316977500915573E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1757,34 +2103,63 @@
         <f t="shared" si="0"/>
         <v>-0.17810434211384119</v>
       </c>
+      <c r="AC14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.55016427260731504</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>7.5027823448181097E-2</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.126065254211425</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3694448471069266E-2</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.0242481231694271E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>AVERAGE(B3:B14)</f>
         <v>0.55775104308982204</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:H15" si="6">AVERAGE(C3:C14)</f>
+        <f t="shared" ref="C15:H15" si="8">AVERAGE(C3:C14)</f>
         <v>11.416666666666666</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.666666666666666</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.333333333333333</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32804563641548112</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-6.0833796858787488E-2</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J15" s="1">
@@ -1816,8 +2191,37 @@
         <f>1.7 + Z12</f>
         <v>1.6496443271636962</v>
       </c>
+      <c r="AC15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.54797436517141995</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>7.2663307189941406E-2</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.11140286922454801</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1329932212829575E-2</v>
+      </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.8686633110046424E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1849,8 +2253,37 @@
         <f t="shared" si="0"/>
         <v>-0.17451614249836317</v>
       </c>
+      <c r="AC16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.55202084604482204</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>7.2898149490356404E-2</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.12829554080963099</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1564774513244573E-2</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.7939615249634444E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1900,8 +2333,37 @@
         <f t="shared" si="0"/>
         <v>-0.1142186533321032</v>
       </c>
+      <c r="AC17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.53936616903226398</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>3.7541508674621499E-2</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>7.9335331916808999E-2</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6208133697509668E-2</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.0754170417785432E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J18" s="1">
         <v>1</v>
       </c>
@@ -1923,8 +2385,37 @@
       <c r="Q18" s="1">
         <v>-9.4763755798339802E-2</v>
       </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0.56405870165355299</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>-6.8674325942993095E-2</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0.156524062156677</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.0007700920104933E-2</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6434559822082565E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F19" s="1">
         <f>1.05+Sheet1!$F$15</f>
         <v>1.3780456364154812</v>
@@ -1961,8 +2452,37 @@
         <f t="shared" si="0"/>
         <v>-0.25780385841022818</v>
       </c>
+      <c r="AC19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.56085620466417896</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>-1.1167526245117101E-2</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.14829826354980399</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.2500901222228928E-2</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8208761215209562E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F20" s="1">
         <v>1.3780456364154801</v>
       </c>
@@ -1997,8 +2517,37 @@
         <f t="shared" si="0"/>
         <v>-0.12553089965473518</v>
       </c>
+      <c r="AC20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.55318116089217395</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>-6.1916112899780197E-2</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0.117346763610839</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.3249487876892028E-2</v>
+      </c>
+      <c r="AK20" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2742738723755434E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J21" s="1">
         <v>4</v>
       </c>
@@ -2027,8 +2576,37 @@
         <f t="shared" si="0"/>
         <v>-0.1410292993892322</v>
       </c>
+      <c r="AC21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.55498325148614902</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>-8.2623243331909096E-2</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.12139701843261699</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.10395661830902092</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.692483901977438E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="J22" s="1">
         <v>5</v>
@@ -2058,8 +2636,37 @@
         <f t="shared" si="0"/>
         <v>-2.710234035142034E-4</v>
       </c>
+      <c r="AC22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.55576563601998197</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>-4.7181248664855902E-2</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0.129494428634643</v>
+      </c>
+      <c r="AJ22" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.8514623641967726E-2</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.9507369995143167E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J23" s="1">
         <v>1</v>
       </c>
@@ -2088,8 +2695,37 @@
         <f t="shared" si="0"/>
         <v>1.0010777820240804E-2</v>
       </c>
+      <c r="AC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.56034783495832796</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>-5.3748488426208399E-2</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0.14115941524505601</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.5081863403320237E-2</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1069912910461582E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J24" s="1">
         <v>2</v>
       </c>
@@ -2118,8 +2754,37 @@
         <f t="shared" si="0"/>
         <v>0.14099508415568929</v>
       </c>
+      <c r="AC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.55780679708300596</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>-4.9501776695251402E-2</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0.13239741325378401</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.0835151672363234E-2</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3079109191895819E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
         <v>3</v>
       </c>
@@ -2148,8 +2813,37 @@
         <f t="shared" si="0"/>
         <v>3.8189469684253893E-2</v>
       </c>
+      <c r="AC25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.56250494023143005</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>-5.0509810447692802E-2</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.15115380287170399</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.184318542480464E-2</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1064300537109559E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J26" s="1">
         <v>4</v>
       </c>
@@ -2178,8 +2872,37 @@
         <f t="shared" si="0"/>
         <v>0.12509184967387785</v>
       </c>
+      <c r="AC26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.56320611793864594</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>11</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>-5.2221655845642E-2</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.152873754501342</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.3555030822753831E-2</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2784252166747565E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J27" s="1">
         <v>5</v>
       </c>
@@ -2201,39 +2924,94 @@
       <c r="Q27" s="1">
         <v>5.1427602767944301E-2</v>
       </c>
+      <c r="AC27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.55883099106130796</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>-4.8799395561218199E-2</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.136818528175354</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.013277053833003E-2</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7290258407595727E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="K28" s="1">
         <f>AVERAGE(K3:K26)</f>
         <v>0.75720627936621465</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:R28" si="7">AVERAGE(L3:L26)</f>
+        <f t="shared" ref="L28:R28" si="9">AVERAGE(L3:L26)</f>
         <v>13.416666666666666</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.833333333333333</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.5416666666666661</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.4471074740091937E-2</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.1195586312900888</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.1418809493382739E-2</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.3877787807814457E-17</v>
+      </c>
+      <c r="AH28" s="1">
+        <f>AVERAGE(AH3:AH27)</f>
+        <v>2.1333374977111831E-2</v>
+      </c>
+      <c r="AI28" s="1">
+        <f>AVERAGE(AI3:AI27)</f>
+        <v>0.13008950233459443</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f>AVERAGE(AJ3:AJ27)</f>
+        <v>-2.5535129566378602E-17</v>
+      </c>
+      <c r="AK28" s="1">
+        <f>AVERAGE(AK3:AK27)</f>
+        <v>4.4408920985006263E-18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH30" s="1">
+        <f>1.702+AH28</f>
+        <v>1.7233333749771118</v>
+      </c>
+      <c r="AI30" s="1">
+        <f>1.65+AI28</f>
+        <v>1.7800895023345944</v>
       </c>
     </row>
     <row r="33" spans="15:17" x14ac:dyDescent="0.25">
